--- a/model/input/test_features.xlsx
+++ b/model/input/test_features.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python\Code\Mel_recognition\model\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87D8E257-884C-46FA-9BDA-F9A776F7A647}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E116E908-C7DF-4984-ACCE-FF4EA43AB665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-5490" windowWidth="16440" windowHeight="29040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -803,7 +803,7 @@
   <dimension ref="A1:AP81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="D23" sqref="A1:AP81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
